--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1576153.878414731</v>
+        <v>1598700.929841913</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10936416.84786417</v>
+        <v>10949029.13364798</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6650707.463994284</v>
+        <v>6649270.352264836</v>
       </c>
     </row>
     <row r="11">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>61.41019607786534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.72093106024678</v>
+        <v>67.58039164023424</v>
       </c>
       <c r="T17" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7.707524086456973</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2.012665761932266</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.3975303159331</v>
+        <v>59.87286755377729</v>
       </c>
       <c r="S18" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="T18" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="U18" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>16.00845666288099</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>45.40173941498435</v>
+        <v>45.87707665282854</v>
       </c>
       <c r="R19" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>21.70331498740569</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>64.39355880481564</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2090,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>104.7086238422894</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>107.5767618011527</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>180.3281561862901</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>208.5779595299953</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>124.2408275098703</v>
       </c>
       <c r="C21" t="n">
-        <v>129.9408056104745</v>
+        <v>130.4161428483187</v>
       </c>
       <c r="D21" t="n">
-        <v>104.6773721867975</v>
+        <v>105.1527094246418</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>102.7768562533869</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>95.05116102321364</v>
       </c>
       <c r="H21" t="n">
-        <v>69.46775085865525</v>
+        <v>69.94308809649945</v>
       </c>
       <c r="I21" t="n">
-        <v>46.62893947357387</v>
+        <v>47.10427671141807</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.86547801264613</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>129.3908149638408</v>
       </c>
       <c r="T21" t="n">
-        <v>157.3970353169804</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>190.032893771584</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>208.9272897830784</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>28.25616527527518</v>
+        <v>73.38689743258325</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.4790784724042</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>103.666269268728</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>102.65335464509</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.39434987385317</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>181.1054868871109</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>176.2922972120978</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>240.6320064407574</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1014245633085</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>166.2523762084041</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>180.3281561862901</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>124.2408275098703</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>32.7920528760064</v>
+        <v>105.1527094246418</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.86547801264613</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>129.3908149638408</v>
       </c>
       <c r="T24" t="n">
-        <v>157.3970353169804</v>
+        <v>157.8723725548246</v>
       </c>
       <c r="U24" t="n">
-        <v>183.1736887031336</v>
+        <v>183.6490259409778</v>
       </c>
       <c r="V24" t="n">
-        <v>190.032893771584</v>
+        <v>177.1570238696176</v>
       </c>
       <c r="W24" t="n">
-        <v>208.9272897830784</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>163.0052918256363</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>67.60294430435201</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.1416065065722</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>185.1778960504403</v>
+        <v>185.6532332882845</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>175.0151562096351</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>65.67504284716858</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>48.0821877172497</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>90.94660117859129</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>150.097552823687</v>
+        <v>146.6103427962735</v>
       </c>
       <c r="T26" t="n">
-        <v>164.173332801573</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>107.610666887309</v>
+        <v>11.84765576624173</v>
       </c>
       <c r="C27" t="n">
-        <v>113.7859822257574</v>
+        <v>110.2987721983439</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>85.03533877466688</v>
       </c>
       <c r="E27" t="n">
-        <v>98.72256369284256</v>
+        <v>95.23535366542907</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>74.93379037323876</v>
       </c>
       <c r="H27" t="n">
-        <v>53.31292747393807</v>
+        <v>49.82571744652459</v>
       </c>
       <c r="I27" t="n">
-        <v>30.47411608885669</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.74810736267126</v>
       </c>
       <c r="S27" t="n">
-        <v>112.7606543412794</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>137.7550019048497</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>173.8780703868669</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>189.2852563709477</v>
       </c>
       <c r="X27" t="n">
-        <v>146.8504684409191</v>
+        <v>143.3632584135056</v>
       </c>
       <c r="Y27" t="n">
-        <v>97.93280273865024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>84.0242358565973</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>109.0684625959004</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.9494533267009</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.391516979296265</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.6068712470004</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>179.337505433864</v>
+        <v>189.7279165338561</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>166.7871386264788</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.8594666780458</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C30" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D30" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E30" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F30" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G30" t="n">
         <v>23.10068338558301</v>
@@ -2922,7 +2922,7 @@
         <v>57.44033732621021</v>
       </c>
       <c r="T30" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U30" t="n">
         <v>111.6985483033472</v>
@@ -2934,10 +2934,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X30" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y30" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="31">
@@ -2950,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>30.06428283492317</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7737642593446</v>
+        <v>58.02851009699578</v>
       </c>
       <c r="T31" t="n">
         <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788632</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2801645589633</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.4668216114095</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,64 +3038,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>228.0677061829616</v>
+      </c>
+      <c r="H32" t="n">
+        <v>225.2319683381395</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>35.62628416352204</v>
-      </c>
-      <c r="S32" t="n">
-        <v>94.7772358086177</v>
-      </c>
-      <c r="T32" t="n">
-        <v>81.88186567130234</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C33" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D33" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E33" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F33" t="n">
-        <v>30.82637861575648</v>
+        <v>30.82637861575641</v>
       </c>
       <c r="G33" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>57.44033732621018</v>
+        <v>57.4403373262102</v>
       </c>
       <c r="T33" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U33" t="n">
         <v>111.6985483033472</v>
@@ -3171,10 +3171,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X33" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y33" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="34">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>16.73724812207082</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>103.2074087477936</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0761955788632</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462003</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2801645589633</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>111.4668216114095</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>106.5444351723772</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.78462534974888</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>110.8604053276349</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>59.44772686734136</v>
+        <v>33.35166283263632</v>
       </c>
       <c r="T36" t="n">
         <v>87.92928445832514</v>
@@ -3411,7 +3411,7 @@
         <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>67.351187506103</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>60.98299483242827</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>111.7811538004758</v>
+        <v>99.17581677140166</v>
       </c>
       <c r="T37" t="n">
-        <v>115.710145191785</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>174.2875541000946</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>106.3492091155983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,70 +3503,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>226.0603166418304</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>227.2393578792707</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.20167537866595</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C39" t="n">
         <v>60.47305475181928</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>59.44772686734136</v>
+        <v>33.35166283263632</v>
       </c>
       <c r="T39" t="n">
         <v>87.92928445832514</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>34.19851841007271</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.98016593494826</v>
+        <v>104.6635161529674</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>174.0835851199944</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W40" t="n">
         <v>174.2875541000946</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y40" t="n">
         <v>106.3492091155983</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>150.8751895655767</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V41" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="X41" t="n">
-        <v>171.2933578174123</v>
+        <v>147.0441142774038</v>
       </c>
       <c r="Y41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>78.32399098716505</v>
+        <v>46.76451890502586</v>
       </c>
       <c r="T42" t="n">
-        <v>106.8055485781488</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U42" t="n">
-        <v>132.582201964302</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>139.4414070327525</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W42" t="n">
-        <v>158.3358030442468</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X42" t="n">
-        <v>42.46765737522784</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="43">
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.47280006526452</v>
+        <v>56.69304207236389</v>
       </c>
       <c r="C43" t="n">
-        <v>73.88764098195506</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>53.0747825298964</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F43" t="n">
-        <v>52.06186790625847</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G43" t="n">
-        <v>74.63179924178598</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H43" t="n">
-        <v>68.8679923907668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.09129481058551</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S43" t="n">
-        <v>34.88862188414563</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>158.7784632071552</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="C17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="D17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="E17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="F17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="G17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="H17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="I17" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J17" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K17" t="n">
-        <v>74.60139623446405</v>
+        <v>79.02793300345286</v>
       </c>
       <c r="L17" t="n">
-        <v>140.8362807416985</v>
+        <v>79.02793300345286</v>
       </c>
       <c r="M17" t="n">
-        <v>140.8362807416985</v>
+        <v>79.02793300345286</v>
       </c>
       <c r="N17" t="n">
-        <v>140.8362807416985</v>
+        <v>154.9868200650241</v>
       </c>
       <c r="O17" t="n">
-        <v>209.8600024913428</v>
+        <v>230.9457071265953</v>
       </c>
       <c r="P17" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="R17" t="n">
-        <v>208.458541351849</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="S17" t="n">
-        <v>138.0333584627108</v>
+        <v>238.641572329344</v>
       </c>
       <c r="T17" t="n">
-        <v>67.60817557357262</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="U17" t="n">
-        <v>67.60817557357262</v>
+        <v>83.63925203229022</v>
       </c>
       <c r="V17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="W17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="X17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="Y17" t="n">
-        <v>67.60817557357262</v>
+        <v>6.138091883763329</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.610670203943243</v>
+        <v>13.92346974887138</v>
       </c>
       <c r="C18" t="n">
-        <v>7.610670203943243</v>
+        <v>13.92346974887138</v>
       </c>
       <c r="D18" t="n">
-        <v>7.610670203943243</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="E18" t="n">
-        <v>7.610670203943243</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="F18" t="n">
-        <v>7.610670203943243</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="G18" t="n">
-        <v>7.610670203943243</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="H18" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="I18" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J18" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K18" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="L18" t="n">
-        <v>74.60139623446405</v>
+        <v>82.09697894533453</v>
       </c>
       <c r="M18" t="n">
-        <v>143.6251179841084</v>
+        <v>82.09697894533453</v>
       </c>
       <c r="N18" t="n">
-        <v>209.8600024913428</v>
+        <v>158.0558660069057</v>
       </c>
       <c r="O18" t="n">
-        <v>209.8600024913428</v>
+        <v>234.0147530684769</v>
       </c>
       <c r="P18" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q18" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="R18" t="n">
-        <v>218.8862188713578</v>
+        <v>246.426950194452</v>
       </c>
       <c r="S18" t="n">
-        <v>148.4610359822196</v>
+        <v>168.9257900459252</v>
       </c>
       <c r="T18" t="n">
-        <v>78.03585309308141</v>
+        <v>91.42462989739828</v>
       </c>
       <c r="U18" t="n">
-        <v>7.610670203943243</v>
+        <v>13.92346974887138</v>
       </c>
       <c r="V18" t="n">
-        <v>7.610670203943243</v>
+        <v>13.92346974887138</v>
       </c>
       <c r="W18" t="n">
-        <v>7.610670203943243</v>
+        <v>13.92346974887138</v>
       </c>
       <c r="X18" t="n">
-        <v>7.610670203943243</v>
+        <v>13.92346974887138</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.610670203943243</v>
+        <v>13.92346974887138</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.17301561929224</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="C19" t="n">
-        <v>92.17301561929224</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="D19" t="n">
-        <v>92.17301561929224</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="E19" t="n">
-        <v>21.74783273015407</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="F19" t="n">
-        <v>21.74783273015407</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="G19" t="n">
-        <v>21.74783273015407</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="H19" t="n">
-        <v>21.74783273015407</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="I19" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="J19" t="n">
-        <v>5.577674484819743</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="K19" t="n">
-        <v>5.577674484819743</v>
+        <v>23.97341190901649</v>
       </c>
       <c r="L19" t="n">
-        <v>73.24450029087565</v>
+        <v>91.16965384960666</v>
       </c>
       <c r="M19" t="n">
-        <v>142.26822204052</v>
+        <v>167.1285409111779</v>
       </c>
       <c r="N19" t="n">
-        <v>211.2919437901643</v>
+        <v>243.0874279727491</v>
       </c>
       <c r="O19" t="n">
-        <v>275.9839212234065</v>
+        <v>269.7167035830447</v>
       </c>
       <c r="P19" t="n">
-        <v>278.8837242409871</v>
+        <v>306.9045941881665</v>
       </c>
       <c r="Q19" t="n">
-        <v>233.0233813975686</v>
+        <v>260.5641127206629</v>
       </c>
       <c r="R19" t="n">
-        <v>162.5981985084304</v>
+        <v>260.5641127206629</v>
       </c>
       <c r="S19" t="n">
-        <v>92.17301561929224</v>
+        <v>183.062952572136</v>
       </c>
       <c r="T19" t="n">
-        <v>92.17301561929224</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="U19" t="n">
-        <v>92.17301561929224</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="V19" t="n">
-        <v>92.17301561929224</v>
+        <v>161.1404121808171</v>
       </c>
       <c r="W19" t="n">
-        <v>92.17301561929224</v>
+        <v>83.63925203229022</v>
       </c>
       <c r="X19" t="n">
-        <v>92.17301561929224</v>
+        <v>6.138091883763329</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.17301561929224</v>
+        <v>6.138091883763329</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.32514190295581</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>611.9449831077961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>368.4962064636961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>125.047429819596</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="T20" t="n">
-        <v>781.9075027972118</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="U20" t="n">
-        <v>571.2226951911559</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="V20" t="n">
-        <v>571.2226951911559</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="W20" t="n">
-        <v>327.7739185470559</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="X20" t="n">
-        <v>84.32514190295581</v>
+        <v>855.3937597518961</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.32514190295581</v>
+        <v>855.3937597518961</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>373.5385856652645</v>
+        <v>575.285420238979</v>
       </c>
       <c r="C21" t="n">
-        <v>242.2852466647851</v>
+        <v>443.5519426144146</v>
       </c>
       <c r="D21" t="n">
-        <v>136.5505272841816</v>
+        <v>337.3370846097259</v>
       </c>
       <c r="E21" t="n">
-        <v>136.5505272841816</v>
+        <v>337.3370846097259</v>
       </c>
       <c r="F21" t="n">
-        <v>136.5505272841816</v>
+        <v>233.5220782931735</v>
       </c>
       <c r="G21" t="n">
-        <v>136.5505272841816</v>
+        <v>137.5108045323516</v>
       </c>
       <c r="H21" t="n">
-        <v>66.38108197240855</v>
+        <v>66.86122059649361</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>905.6071777200846</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>774.909384827316</v>
       </c>
       <c r="T21" t="n">
-        <v>805.0702511500499</v>
+        <v>774.909384827316</v>
       </c>
       <c r="U21" t="n">
-        <v>805.0702511500499</v>
+        <v>774.909384827316</v>
       </c>
       <c r="V21" t="n">
-        <v>613.1178331989549</v>
+        <v>774.909384827316</v>
       </c>
       <c r="W21" t="n">
-        <v>402.080166751401</v>
+        <v>774.909384827316</v>
       </c>
       <c r="X21" t="n">
-        <v>373.5385856652645</v>
+        <v>700.7812056024844</v>
       </c>
       <c r="Y21" t="n">
-        <v>373.5385856652645</v>
+        <v>700.7812056024844</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.2798323892251</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>227.6848036292208</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>227.6848036292208</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>122.9714003274754</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5911,49 +5911,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>39.5743626466515</v>
+        <v>39.10377878118574</v>
       </c>
       <c r="L22" t="n">
-        <v>109.2285040984273</v>
+        <v>108.2873363674957</v>
       </c>
       <c r="M22" t="n">
-        <v>190.7565587347123</v>
+        <v>189.3448071383149</v>
       </c>
       <c r="N22" t="n">
-        <v>276.7874258342114</v>
+        <v>274.9050903723482</v>
       </c>
       <c r="O22" t="n">
-        <v>343.4667189131735</v>
+        <v>341.1137995858446</v>
       </c>
       <c r="P22" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="Q22" t="n">
-        <v>339.2798323892251</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="R22" t="n">
-        <v>339.2798323892251</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="S22" t="n">
-        <v>339.2798323892251</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="T22" t="n">
-        <v>339.2798323892251</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="U22" t="n">
-        <v>339.2798323892251</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="V22" t="n">
-        <v>339.2798323892251</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="W22" t="n">
-        <v>339.2798323892251</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="X22" t="n">
-        <v>339.2798323892251</v>
+        <v>197.3541705971802</v>
       </c>
       <c r="Y22" t="n">
-        <v>339.2798323892251</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>855.8738983759812</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>687.942205236179</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>505.7925525227546</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>505.7925525227546</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>505.7925525227546</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.3437758786545</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.3437758786545</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.3437758786545</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>52.40442884355252</v>
+        <v>125.4960011149014</v>
       </c>
       <c r="C24" t="n">
-        <v>52.40442884355252</v>
+        <v>125.4960011149014</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>905.6071777200846</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>774.909384827316</v>
       </c>
       <c r="T24" t="n">
-        <v>805.0702511500499</v>
+        <v>615.4423418426446</v>
       </c>
       <c r="U24" t="n">
-        <v>620.0463231670866</v>
+        <v>429.9382752355963</v>
       </c>
       <c r="V24" t="n">
-        <v>428.0939052159916</v>
+        <v>250.9917864784068</v>
       </c>
       <c r="W24" t="n">
-        <v>217.0562387684377</v>
+        <v>250.9917864784068</v>
       </c>
       <c r="X24" t="n">
-        <v>52.40442884355252</v>
+        <v>250.9917864784068</v>
       </c>
       <c r="Y24" t="n">
-        <v>52.40442884355252</v>
+        <v>250.9917864784068</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>192.7604873636715</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>192.7604873636715</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>124.4746850360432</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6148,49 +6148,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>39.5743626466515</v>
+        <v>39.10377878118574</v>
       </c>
       <c r="L25" t="n">
-        <v>109.2285040984273</v>
+        <v>108.2873363674957</v>
       </c>
       <c r="M25" t="n">
-        <v>190.7565587347123</v>
+        <v>189.3448071383149</v>
       </c>
       <c r="N25" t="n">
-        <v>276.7874258342114</v>
+        <v>274.9050903723482</v>
       </c>
       <c r="O25" t="n">
-        <v>343.4667189131735</v>
+        <v>341.1137995858446</v>
       </c>
       <c r="P25" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="Q25" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="R25" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="S25" t="n">
-        <v>383.1125090294808</v>
+        <v>380.2890058366862</v>
       </c>
       <c r="T25" t="n">
-        <v>196.0641291805512</v>
+        <v>192.7604873636715</v>
       </c>
       <c r="U25" t="n">
-        <v>196.0641291805512</v>
+        <v>192.7604873636715</v>
       </c>
       <c r="V25" t="n">
-        <v>196.0641291805512</v>
+        <v>192.7604873636715</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>192.7604873636715</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>192.7604873636715</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>192.7604873636715</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>311.2977861353731</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>311.2977861353731</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>311.2977861353731</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>67.84900949127302</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>67.84900949127302</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>872.1919017948874</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>720.5782120739914</v>
+        <v>815.965900160865</v>
       </c>
       <c r="T26" t="n">
-        <v>554.7465627794732</v>
+        <v>815.965900160865</v>
       </c>
       <c r="U26" t="n">
-        <v>554.7465627794732</v>
+        <v>815.965900160865</v>
       </c>
       <c r="V26" t="n">
-        <v>554.7465627794732</v>
+        <v>815.965900160865</v>
       </c>
       <c r="W26" t="n">
-        <v>311.2977861353731</v>
+        <v>572.517123516765</v>
       </c>
       <c r="X26" t="n">
-        <v>311.2977861353731</v>
+        <v>572.517123516765</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.2977861353731</v>
+        <v>329.0683468726649</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>318.5696173338437</v>
+        <v>438.8053577144584</v>
       </c>
       <c r="C27" t="n">
-        <v>203.6342817522706</v>
+        <v>327.3924565040101</v>
       </c>
       <c r="D27" t="n">
-        <v>203.6342817522706</v>
+        <v>241.4981749134374</v>
       </c>
       <c r="E27" t="n">
-        <v>103.9145204463691</v>
+        <v>145.3008479786606</v>
       </c>
       <c r="F27" t="n">
-        <v>103.9145204463691</v>
+        <v>145.3008479786606</v>
       </c>
       <c r="G27" t="n">
-        <v>103.9145204463691</v>
+        <v>69.61015063195472</v>
       </c>
       <c r="H27" t="n">
-        <v>50.06307855350231</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6318,37 +6318,37 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>925.9277541342007</v>
       </c>
       <c r="S27" t="n">
-        <v>850.157504660859</v>
+        <v>925.9277541342007</v>
       </c>
       <c r="T27" t="n">
-        <v>850.157504660859</v>
+        <v>786.7812875636454</v>
       </c>
       <c r="U27" t="n">
-        <v>850.157504660859</v>
+        <v>786.7812875636454</v>
       </c>
       <c r="V27" t="n">
-        <v>674.5230901286702</v>
+        <v>786.7812875636454</v>
       </c>
       <c r="W27" t="n">
-        <v>674.5230901286702</v>
+        <v>595.5840589061224</v>
       </c>
       <c r="X27" t="n">
-        <v>526.1892836226914</v>
+        <v>450.7726867712682</v>
       </c>
       <c r="Y27" t="n">
-        <v>427.2672606543578</v>
+        <v>450.7726867712682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>129.4513073484959</v>
+        <v>135.4161826893018</v>
       </c>
       <c r="C28" t="n">
-        <v>129.4513073484959</v>
+        <v>135.4161826893018</v>
       </c>
       <c r="D28" t="n">
-        <v>129.4513073484959</v>
+        <v>135.4161826893018</v>
       </c>
       <c r="E28" t="n">
-        <v>129.4513073484959</v>
+        <v>50.54321717758737</v>
       </c>
       <c r="F28" t="n">
-        <v>129.4513073484959</v>
+        <v>50.54321717758737</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>50.54321717758737</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>50.54321717758737</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>50.54321717758737</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>55.56763779752151</v>
+        <v>59.01997572466086</v>
       </c>
       <c r="L28" t="n">
-        <v>141.2150544001673</v>
+        <v>148.119730254446</v>
       </c>
       <c r="M28" t="n">
-        <v>238.7363841873222</v>
+        <v>249.0933979687403</v>
       </c>
       <c r="N28" t="n">
-        <v>340.7605264376913</v>
+        <v>354.5698781462488</v>
       </c>
       <c r="O28" t="n">
-        <v>423.4330946675234</v>
+        <v>440.6947843032202</v>
       </c>
       <c r="P28" t="n">
-        <v>479.0721599347007</v>
+        <v>499.786187497537</v>
       </c>
       <c r="Q28" t="n">
-        <v>479.0721599347007</v>
+        <v>499.786187497537</v>
       </c>
       <c r="R28" t="n">
-        <v>479.0721599347007</v>
+        <v>490.299806710369</v>
       </c>
       <c r="S28" t="n">
-        <v>479.0721599347007</v>
+        <v>327.06054282451</v>
       </c>
       <c r="T28" t="n">
-        <v>479.0721599347007</v>
+        <v>327.06054282451</v>
       </c>
       <c r="U28" t="n">
-        <v>479.0721599347007</v>
+        <v>327.06054282451</v>
       </c>
       <c r="V28" t="n">
-        <v>297.9231645469594</v>
+        <v>135.4161826893018</v>
       </c>
       <c r="W28" t="n">
-        <v>297.9231645469594</v>
+        <v>135.4161826893018</v>
       </c>
       <c r="X28" t="n">
-        <v>129.4513073484959</v>
+        <v>135.4161826893018</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.4513073484959</v>
+        <v>135.4161826893018</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>505.5988165654798</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6500,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6519,13 +6519,13 @@
         <v>210.1874114706286</v>
       </c>
       <c r="C30" t="n">
-        <v>151.131183985085</v>
+        <v>151.1311839850851</v>
       </c>
       <c r="D30" t="n">
         <v>117.5935761194174</v>
       </c>
       <c r="E30" t="n">
-        <v>73.7529229095453</v>
+        <v>73.75292290954533</v>
       </c>
       <c r="F30" t="n">
         <v>42.61516673201375</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6576,13 +6576,13 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V30" t="n">
-        <v>586.664697007051</v>
+        <v>586.6646970070512</v>
       </c>
       <c r="W30" t="n">
         <v>447.824142074433</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644835</v>
       </c>
       <c r="Y30" t="n">
         <v>263.0059466951132</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>218.8936451256284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>165.354263993305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>130.6344263765528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>98.11813458974314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>98.11813458974314</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>67.75017213022478</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6619,10 +6619,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K31" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L31" t="n">
         <v>271.4240992143497</v>
@@ -6631,40 +6631,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N31" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O31" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P31" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q31" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R31" t="n">
-        <v>792.4622108305023</v>
+        <v>792.4622108305019</v>
       </c>
       <c r="S31" t="n">
-        <v>681.5796206695481</v>
+        <v>733.8475541668698</v>
       </c>
       <c r="T31" t="n">
-        <v>566.7283523355543</v>
+        <v>618.996285832876</v>
       </c>
       <c r="U31" t="n">
-        <v>392.9140133670056</v>
+        <v>445.1819468643272</v>
       </c>
       <c r="V31" t="n">
-        <v>392.9140133670056</v>
+        <v>305.8942604540238</v>
       </c>
       <c r="W31" t="n">
-        <v>218.8936451256284</v>
+        <v>131.8738922126466</v>
       </c>
       <c r="X31" t="n">
-        <v>218.8936451256284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.8936451256284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>832.3364282660507</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6756,16 +6756,16 @@
         <v>210.1874114706289</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850854</v>
+        <v>151.1311839850853</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194176</v>
+        <v>117.5935761194175</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954553</v>
+        <v>73.75292290954548</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201375</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,7 +6783,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
         <v>234.810827406191</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.1874543446277</v>
+        <v>154.5575200592881</v>
       </c>
       <c r="C34" t="n">
-        <v>36.1874543446277</v>
+        <v>154.5575200592881</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>154.5575200592881</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>122.0412282724785</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>122.0412282724785</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>67.7501721302248</v>
       </c>
       <c r="H34" t="n">
         <v>19.28114311021272</v>
@@ -6856,10 +6856,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L34" t="n">
         <v>271.4240992143497</v>
@@ -6868,40 +6868,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N34" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O34" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P34" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q34" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R34" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="S34" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="T34" t="n">
-        <v>741.2983744152375</v>
+        <v>751.899734923177</v>
       </c>
       <c r="U34" t="n">
-        <v>567.4840354466887</v>
+        <v>578.0853959546282</v>
       </c>
       <c r="V34" t="n">
-        <v>428.1963490363853</v>
+        <v>438.7977095443248</v>
       </c>
       <c r="W34" t="n">
-        <v>254.1759807950082</v>
+        <v>438.7977095443248</v>
       </c>
       <c r="X34" t="n">
-        <v>141.5832316925743</v>
+        <v>326.204960441891</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.1874543446277</v>
+        <v>220.8091830939443</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>370.3505613425726</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>126.9017846984725</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>126.9017846984725</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>866.294907682607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>754.3147002809555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>613.7993379866726</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>613.7993379866726</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>613.7993379866726</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>613.7993379866726</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>370.3505613425726</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7020,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,22 +7041,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>904.0089465537258</v>
+        <v>930.368607194842</v>
       </c>
       <c r="T36" t="n">
-        <v>815.1914875049125</v>
+        <v>841.5511481460287</v>
       </c>
       <c r="U36" t="n">
-        <v>700.3370048337223</v>
+        <v>726.6966654748385</v>
       </c>
       <c r="V36" t="n">
-        <v>578.5540321944003</v>
+        <v>604.9136928355165</v>
       </c>
       <c r="W36" t="n">
-        <v>437.6858110586193</v>
+        <v>464.0454716997355</v>
       </c>
       <c r="X36" t="n">
-        <v>343.2034464455072</v>
+        <v>369.5631070866233</v>
       </c>
       <c r="Y36" t="n">
         <v>275.17194391409</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.54945883561746</v>
+        <v>240.0164225564935</v>
       </c>
       <c r="C37" t="n">
-        <v>89.54945883561746</v>
+        <v>240.0164225564935</v>
       </c>
       <c r="D37" t="n">
-        <v>52.8019550157024</v>
+        <v>203.2689187365784</v>
       </c>
       <c r="E37" t="n">
-        <v>52.8019550157024</v>
+        <v>203.2689187365784</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>169.7481068310887</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.4293844856723</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>62.9326892624974</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7120,25 +7120,25 @@
         <v>840.2511175834725</v>
       </c>
       <c r="S37" t="n">
-        <v>727.3408612193555</v>
+        <v>740.073524885087</v>
       </c>
       <c r="T37" t="n">
-        <v>610.4619266821989</v>
+        <v>740.073524885087</v>
       </c>
       <c r="U37" t="n">
-        <v>434.6199215104873</v>
+        <v>564.2315197133754</v>
       </c>
       <c r="V37" t="n">
-        <v>434.6199215104873</v>
+        <v>422.9161670999092</v>
       </c>
       <c r="W37" t="n">
-        <v>258.5718870659474</v>
+        <v>422.9161670999092</v>
       </c>
       <c r="X37" t="n">
-        <v>258.5718870659474</v>
+        <v>308.2957517943125</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.1484435148379</v>
+        <v>308.2957517943125</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>735.7134013269691</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>735.7134013269691</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E38" t="n">
-        <v>735.7134013269691</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>492.2646246828691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>248.815848038769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7214,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>904.0089465537258</v>
+        <v>930.368607194842</v>
       </c>
       <c r="T39" t="n">
-        <v>815.1914875049125</v>
+        <v>841.5511481460287</v>
       </c>
       <c r="U39" t="n">
-        <v>700.3370048337223</v>
+        <v>726.6966654748385</v>
       </c>
       <c r="V39" t="n">
-        <v>578.5540321944003</v>
+        <v>604.9136928355165</v>
       </c>
       <c r="W39" t="n">
-        <v>437.6858110586193</v>
+        <v>464.0454716997355</v>
       </c>
       <c r="X39" t="n">
-        <v>343.2034464455072</v>
+        <v>369.5631070866233</v>
       </c>
       <c r="Y39" t="n">
-        <v>248.812283272974</v>
+        <v>275.17194391409</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>147.9733424756447</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="C40" t="n">
-        <v>147.9733424756447</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9733424756447</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="E40" t="n">
-        <v>113.4293844856723</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="F40" t="n">
-        <v>113.4293844856723</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="G40" t="n">
-        <v>113.4293844856723</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="H40" t="n">
-        <v>62.9326892624974</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>143.0871810373766</v>
       </c>
       <c r="J40" t="n">
-        <v>37.96864458883817</v>
+        <v>161.7746825160021</v>
       </c>
       <c r="K40" t="n">
-        <v>127.0349374753456</v>
+        <v>250.8409754025095</v>
       </c>
       <c r="L40" t="n">
-        <v>265.4621522771901</v>
+        <v>389.268190204354</v>
       </c>
       <c r="M40" t="n">
-        <v>415.7632802635438</v>
+        <v>539.5693181907077</v>
       </c>
       <c r="N40" t="n">
-        <v>570.5672207131116</v>
+        <v>694.3732586402755</v>
       </c>
       <c r="O40" t="n">
-        <v>706.0195871421424</v>
+        <v>829.8256250693062</v>
       </c>
       <c r="P40" t="n">
-        <v>814.4384506085185</v>
+        <v>938.2444885356822</v>
       </c>
       <c r="Q40" t="n">
-        <v>840.2511175834725</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>774.5360194615805</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>675.5661548808247</v>
+        <v>858.3364321238005</v>
       </c>
       <c r="T40" t="n">
-        <v>675.5661548808247</v>
+        <v>858.3364321238005</v>
       </c>
       <c r="U40" t="n">
-        <v>499.7241497091131</v>
+        <v>682.4944269520889</v>
       </c>
       <c r="V40" t="n">
-        <v>499.7241497091131</v>
+        <v>541.1790743386227</v>
       </c>
       <c r="W40" t="n">
-        <v>323.6761152645731</v>
+        <v>365.1310398940827</v>
       </c>
       <c r="X40" t="n">
-        <v>323.6761152645731</v>
+        <v>250.5106245884861</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.2526717134637</v>
+        <v>143.0871810373766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="C41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="D41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="E41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="F41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J41" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K41" t="n">
-        <v>116.7184745363153</v>
+        <v>116.1580571373718</v>
       </c>
       <c r="L41" t="n">
-        <v>286.2988987755535</v>
+        <v>278.803316064683</v>
       </c>
       <c r="M41" t="n">
-        <v>366.3980568877629</v>
+        <v>278.803316064683</v>
       </c>
       <c r="N41" t="n">
-        <v>535.978481127001</v>
+        <v>441.4485749919943</v>
       </c>
       <c r="O41" t="n">
-        <v>685.1734312696491</v>
+        <v>567.4925060304188</v>
       </c>
       <c r="P41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="T41" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="U41" t="n">
-        <v>685.1734312696491</v>
+        <v>493.5676925786097</v>
       </c>
       <c r="V41" t="n">
-        <v>512.1498375146872</v>
+        <v>493.5676925786097</v>
       </c>
       <c r="W41" t="n">
-        <v>512.1498375146872</v>
+        <v>327.6200760830365</v>
       </c>
       <c r="X41" t="n">
-        <v>339.1262437597253</v>
+        <v>179.0906677220226</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.1026500047634</v>
+        <v>13.1430512264494</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>13.70346862539298</v>
+        <v>71.77783174485715</v>
       </c>
       <c r="C42" t="n">
-        <v>13.70346862539298</v>
+        <v>71.77783174485715</v>
       </c>
       <c r="D42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="E42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="F42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="G42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="H42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="I42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="J42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K42" t="n">
-        <v>13.70346862539298</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="L42" t="n">
-        <v>13.70346862539298</v>
+        <v>169.216784540536</v>
       </c>
       <c r="M42" t="n">
-        <v>183.2838928646311</v>
+        <v>331.8620434678472</v>
       </c>
       <c r="N42" t="n">
-        <v>352.8643171038693</v>
+        <v>331.8620434678472</v>
       </c>
       <c r="O42" t="n">
-        <v>522.4447413431074</v>
+        <v>494.5073023951585</v>
       </c>
       <c r="P42" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="Q42" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R42" t="n">
-        <v>678.3061039605881</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="S42" t="n">
-        <v>599.1909615493103</v>
+        <v>609.9156735396153</v>
       </c>
       <c r="T42" t="n">
-        <v>491.3065690461296</v>
+        <v>498.0287080412249</v>
       </c>
       <c r="U42" t="n">
-        <v>357.385152920572</v>
+        <v>498.0287080412249</v>
       </c>
       <c r="V42" t="n">
-        <v>216.5352468268826</v>
+        <v>353.1762289523257</v>
       </c>
       <c r="W42" t="n">
-        <v>56.60009223673424</v>
+        <v>189.2385013669675</v>
       </c>
       <c r="X42" t="n">
-        <v>13.70346862539298</v>
+        <v>189.2385013669675</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.70346862539298</v>
+        <v>71.77783174485715</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2038503034215</v>
+        <v>210.7376358112693</v>
       </c>
       <c r="C43" t="n">
-        <v>327.5698695135679</v>
+        <v>210.7376358112693</v>
       </c>
       <c r="D43" t="n">
-        <v>327.5698695135679</v>
+        <v>210.7376358112693</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9589780692281</v>
+        <v>153.1241713717197</v>
       </c>
       <c r="F43" t="n">
-        <v>221.371232709371</v>
+        <v>96.53385301665281</v>
       </c>
       <c r="G43" t="n">
-        <v>145.9855769095872</v>
+        <v>17.14562422165919</v>
       </c>
       <c r="H43" t="n">
-        <v>76.42194823204501</v>
+        <v>17.14562422165919</v>
       </c>
       <c r="I43" t="n">
-        <v>13.70346862539298</v>
+        <v>17.14562422165919</v>
       </c>
       <c r="J43" t="n">
-        <v>13.70346862539297</v>
+        <v>13.1430512264494</v>
       </c>
       <c r="K43" t="n">
-        <v>84.08226003327501</v>
+        <v>79.59892084172634</v>
       </c>
       <c r="L43" t="n">
-        <v>203.821973356494</v>
+        <v>195.4157123723402</v>
       </c>
       <c r="M43" t="n">
-        <v>335.4355998642222</v>
+        <v>323.1064170874633</v>
       </c>
       <c r="N43" t="n">
-        <v>471.5520388351646</v>
+        <v>455.2999342658006</v>
       </c>
       <c r="O43" t="n">
-        <v>588.3169037855698</v>
+        <v>568.1418774236008</v>
       </c>
       <c r="P43" t="n">
-        <v>678.0482657733205</v>
+        <v>653.9503176187462</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.1734312696491</v>
+        <v>657.1525613224698</v>
       </c>
       <c r="R43" t="n">
-        <v>685.1734312696491</v>
+        <v>568.3679567510006</v>
       </c>
       <c r="S43" t="n">
-        <v>649.9323990634414</v>
+        <v>432.3881939373065</v>
       </c>
       <c r="T43" t="n">
-        <v>649.9323990634414</v>
+        <v>432.3881939373065</v>
       </c>
       <c r="U43" t="n">
-        <v>649.9323990634414</v>
+        <v>432.3881939373065</v>
       </c>
       <c r="V43" t="n">
-        <v>489.5501129956078</v>
+        <v>268.0033348742631</v>
       </c>
       <c r="W43" t="n">
-        <v>489.5501129956078</v>
+        <v>268.0033348742631</v>
       </c>
       <c r="X43" t="n">
-        <v>489.5501129956078</v>
+        <v>268.0033348742631</v>
       </c>
       <c r="Y43" t="n">
-        <v>489.5501129956078</v>
+        <v>268.0033348742631</v>
       </c>
     </row>
     <row r="44">
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>289.8107821052273</v>
+        <v>293.7159531860811</v>
       </c>
       <c r="L17" t="n">
-        <v>302.6703387146685</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>306.1392121436326</v>
       </c>
       <c r="O17" t="n">
-        <v>299.8191424819335</v>
+        <v>306.8243599687283</v>
       </c>
       <c r="P17" t="n">
-        <v>300.9539268155163</v>
+        <v>307.9591443023112</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,19 +9246,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>208.275310840121</v>
+        <v>215.2805283269158</v>
       </c>
       <c r="M18" t="n">
-        <v>211.8549649822651</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>198.2456358280146</v>
+        <v>208.0678606303749</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>219.3223929914861</v>
       </c>
       <c r="P18" t="n">
-        <v>203.695338474577</v>
+        <v>207.6005095554308</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,7 +10206,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10431,10 +10431,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P36" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,10 +10914,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,19 +11063,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>407.0597727873995</v>
+        <v>400.0545553006046</v>
       </c>
       <c r="M41" t="n">
-        <v>311.254473744656</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>400.7064214140032</v>
+        <v>393.7012039272083</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>357.4153134807013</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,19 +11142,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>296.2046154506687</v>
       </c>
       <c r="M42" t="n">
-        <v>313.4273917394306</v>
+        <v>306.4221742526357</v>
       </c>
       <c r="N42" t="n">
-        <v>302.6350699007456</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>313.8896022618567</v>
+        <v>306.8843847750619</v>
       </c>
       <c r="P42" t="n">
-        <v>298.3468214815441</v>
+        <v>298.2625477449477</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.9735378267706</v>
+        <v>342.4488750646148</v>
       </c>
       <c r="C14" t="n">
-        <v>324.5125879342975</v>
+        <v>324.9879251721417</v>
       </c>
       <c r="D14" t="n">
-        <v>313.9227377839729</v>
+        <v>314.3980750218171</v>
       </c>
       <c r="E14" t="n">
-        <v>341.1700662355518</v>
+        <v>341.645403473396</v>
       </c>
       <c r="F14" t="n">
-        <v>366.1157419050014</v>
+        <v>366.5910791428456</v>
       </c>
       <c r="G14" t="n">
-        <v>374.542433678425</v>
+        <v>375.0177709162692</v>
       </c>
       <c r="H14" t="n">
-        <v>298.7144982790571</v>
+        <v>299.1898355169013</v>
       </c>
       <c r="I14" t="n">
-        <v>169.7155857336959</v>
+        <v>170.1909229715401</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>109.1088141044396</v>
+        <v>109.5841513422838</v>
       </c>
       <c r="S14" t="n">
-        <v>168.2597657495353</v>
+        <v>168.7351029873795</v>
       </c>
       <c r="T14" t="n">
-        <v>182.3355457274213</v>
+        <v>182.8108829652655</v>
       </c>
       <c r="U14" t="n">
-        <v>210.5853490711265</v>
+        <v>211.0606863089706</v>
       </c>
       <c r="V14" t="n">
-        <v>286.9919546334249</v>
+        <v>287.4672918712691</v>
       </c>
       <c r="W14" t="n">
-        <v>308.480664880703</v>
+        <v>308.9560021185472</v>
       </c>
       <c r="X14" t="n">
-        <v>328.970796841759</v>
+        <v>329.4461340796032</v>
       </c>
       <c r="Y14" t="n">
-        <v>345.4776348193436</v>
+        <v>345.9529720571878</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.7728798131573</v>
+        <v>126.2482170510015</v>
       </c>
       <c r="C15" t="n">
-        <v>131.9481951516057</v>
+        <v>132.4235323894499</v>
       </c>
       <c r="D15" t="n">
-        <v>106.6847617279287</v>
+        <v>107.1600989657729</v>
       </c>
       <c r="E15" t="n">
-        <v>116.8847766186909</v>
+        <v>117.3601138565351</v>
       </c>
       <c r="F15" t="n">
-        <v>104.3089085566738</v>
+        <v>104.784245794518</v>
       </c>
       <c r="G15" t="n">
-        <v>96.5832133265006</v>
+        <v>97.05855056434478</v>
       </c>
       <c r="H15" t="n">
-        <v>71.47514039978643</v>
+        <v>71.95047763763063</v>
       </c>
       <c r="I15" t="n">
-        <v>48.63632901470504</v>
+        <v>49.11166625254923</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.3975303159331</v>
+        <v>59.87286755377729</v>
       </c>
       <c r="S15" t="n">
-        <v>130.9228672671278</v>
+        <v>131.398204504972</v>
       </c>
       <c r="T15" t="n">
-        <v>159.4044248581116</v>
+        <v>159.8797620959558</v>
       </c>
       <c r="U15" t="n">
-        <v>185.1810782442648</v>
+        <v>185.656415482109</v>
       </c>
       <c r="V15" t="n">
-        <v>192.0402833127152</v>
+        <v>192.5156205505594</v>
       </c>
       <c r="W15" t="n">
-        <v>210.9346793242096</v>
+        <v>211.4100165620538</v>
       </c>
       <c r="X15" t="n">
-        <v>165.0126813667674</v>
+        <v>165.4880186046116</v>
       </c>
       <c r="Y15" t="n">
-        <v>164.9223919405943</v>
+        <v>165.3977291784385</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.0716763452273</v>
+        <v>139.5470135830714</v>
       </c>
       <c r="C16" t="n">
-        <v>126.4865172619178</v>
+        <v>126.961854499762</v>
       </c>
       <c r="D16" t="n">
-        <v>107.8551691815023</v>
+        <v>108.3305064193465</v>
       </c>
       <c r="E16" t="n">
-        <v>105.6736588098591</v>
+        <v>106.1489960477033</v>
       </c>
       <c r="F16" t="n">
-        <v>104.6607441862212</v>
+        <v>105.1360814240654</v>
       </c>
       <c r="G16" t="n">
-        <v>127.2306755217487</v>
+        <v>127.7060127595929</v>
       </c>
       <c r="H16" t="n">
-        <v>121.4668686707295</v>
+        <v>121.9422059085737</v>
       </c>
       <c r="I16" t="n">
-        <v>114.6901710905482</v>
+        <v>115.1655083283924</v>
       </c>
       <c r="J16" t="n">
-        <v>52.59887627996274</v>
+        <v>53.07421351780693</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.40173941498435</v>
+        <v>45.87707665282854</v>
       </c>
       <c r="R16" t="n">
-        <v>136.5330875404595</v>
+        <v>137.0084247783036</v>
       </c>
       <c r="S16" t="n">
-        <v>183.2562942002622</v>
+        <v>183.7316314381064</v>
       </c>
       <c r="T16" t="n">
-        <v>187.1852855915715</v>
+        <v>187.6606228294156</v>
       </c>
       <c r="U16" t="n">
-        <v>245.5587255197809</v>
+        <v>246.034062757625</v>
       </c>
       <c r="V16" t="n">
-        <v>211.377339487118</v>
+        <v>211.8526767249622</v>
       </c>
       <c r="W16" t="n">
-        <v>245.762694499881</v>
+        <v>246.2380317377252</v>
       </c>
       <c r="X16" t="n">
-        <v>184.9493515523271</v>
+        <v>185.4246887901713</v>
       </c>
       <c r="Y16" t="n">
-        <v>177.8243495153848</v>
+        <v>178.2996867532289</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.9735378267706</v>
+        <v>342.4488750646148</v>
       </c>
       <c r="C17" t="n">
-        <v>324.5125879342975</v>
+        <v>324.9879251721417</v>
       </c>
       <c r="D17" t="n">
-        <v>313.9227377839729</v>
+        <v>314.3980750218171</v>
       </c>
       <c r="E17" t="n">
-        <v>341.1700662355518</v>
+        <v>341.645403473396</v>
       </c>
       <c r="F17" t="n">
-        <v>366.1157419050014</v>
+        <v>366.5910791428456</v>
       </c>
       <c r="G17" t="n">
-        <v>374.542433678425</v>
+        <v>375.0177709162692</v>
       </c>
       <c r="H17" t="n">
-        <v>298.7144982790571</v>
+        <v>299.1898355169013</v>
       </c>
       <c r="I17" t="n">
-        <v>108.3053896558305</v>
+        <v>170.1909229715401</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.38788304419286</v>
+        <v>109.5841513422838</v>
       </c>
       <c r="S17" t="n">
-        <v>98.53883468928851</v>
+        <v>101.1547113471453</v>
       </c>
       <c r="T17" t="n">
-        <v>112.6146146671745</v>
+        <v>106.0847344182239</v>
       </c>
       <c r="U17" t="n">
-        <v>210.5853490711265</v>
+        <v>134.334537761929</v>
       </c>
       <c r="V17" t="n">
-        <v>286.9919546334249</v>
+        <v>210.7411433242275</v>
       </c>
       <c r="W17" t="n">
-        <v>308.480664880703</v>
+        <v>308.9560021185472</v>
       </c>
       <c r="X17" t="n">
-        <v>328.970796841759</v>
+        <v>329.4461340796032</v>
       </c>
       <c r="Y17" t="n">
-        <v>345.4776348193436</v>
+        <v>345.9529720571878</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125.7728798131573</v>
+        <v>126.2482170510015</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9481951516057</v>
+        <v>132.4235323894499</v>
       </c>
       <c r="D18" t="n">
-        <v>106.6847617279287</v>
+        <v>99.45257487931593</v>
       </c>
       <c r="E18" t="n">
-        <v>116.8847766186909</v>
+        <v>117.3601138565351</v>
       </c>
       <c r="F18" t="n">
-        <v>104.3089085566738</v>
+        <v>104.784245794518</v>
       </c>
       <c r="G18" t="n">
-        <v>96.5832133265006</v>
+        <v>97.05855056434478</v>
       </c>
       <c r="H18" t="n">
-        <v>69.46247463785416</v>
+        <v>71.95047763763063</v>
       </c>
       <c r="I18" t="n">
-        <v>48.63632901470504</v>
+        <v>49.11166625254923</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,25 +23859,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.20193620688102</v>
+        <v>54.67205595793035</v>
       </c>
       <c r="T18" t="n">
-        <v>89.68349379786477</v>
+        <v>83.15361354891414</v>
       </c>
       <c r="U18" t="n">
-        <v>115.460147184018</v>
+        <v>108.9302669350674</v>
       </c>
       <c r="V18" t="n">
-        <v>192.0402833127152</v>
+        <v>192.5156205505594</v>
       </c>
       <c r="W18" t="n">
-        <v>210.9346793242096</v>
+        <v>211.4100165620538</v>
       </c>
       <c r="X18" t="n">
-        <v>165.0126813667674</v>
+        <v>165.4880186046116</v>
       </c>
       <c r="Y18" t="n">
-        <v>164.9223919405943</v>
+        <v>165.3977291784385</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.0716763452273</v>
+        <v>139.5470135830714</v>
       </c>
       <c r="C19" t="n">
-        <v>126.4865172619178</v>
+        <v>126.961854499762</v>
       </c>
       <c r="D19" t="n">
-        <v>107.8551691815023</v>
+        <v>108.3305064193465</v>
       </c>
       <c r="E19" t="n">
-        <v>35.95272774961235</v>
+        <v>106.1489960477033</v>
       </c>
       <c r="F19" t="n">
-        <v>104.6607441862212</v>
+        <v>105.1360814240654</v>
       </c>
       <c r="G19" t="n">
-        <v>127.2306755217487</v>
+        <v>127.7060127595929</v>
       </c>
       <c r="H19" t="n">
-        <v>121.4668686707295</v>
+        <v>121.9422059085737</v>
       </c>
       <c r="I19" t="n">
-        <v>98.68171442766726</v>
+        <v>115.1655083283924</v>
       </c>
       <c r="J19" t="n">
-        <v>52.59887627996274</v>
+        <v>53.07421351780693</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.81215648021268</v>
+        <v>137.0084247783036</v>
       </c>
       <c r="S19" t="n">
-        <v>113.5353631400154</v>
+        <v>107.0054828910648</v>
       </c>
       <c r="T19" t="n">
-        <v>187.1852855915715</v>
+        <v>165.95730784201</v>
       </c>
       <c r="U19" t="n">
-        <v>245.5587255197809</v>
+        <v>246.034062757625</v>
       </c>
       <c r="V19" t="n">
-        <v>211.377339487118</v>
+        <v>211.8526767249622</v>
       </c>
       <c r="W19" t="n">
-        <v>245.762694499881</v>
+        <v>169.5118831906835</v>
       </c>
       <c r="X19" t="n">
-        <v>184.9493515523271</v>
+        <v>108.6985402431297</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.8243495153848</v>
+        <v>178.2996867532289</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>339.9661482856393</v>
+        <v>340.4414855234835</v>
       </c>
       <c r="C20" t="n">
-        <v>258.1116395883507</v>
+        <v>322.9805356310105</v>
       </c>
       <c r="D20" t="n">
-        <v>311.9153482428417</v>
+        <v>312.3906854806859</v>
       </c>
       <c r="E20" t="n">
-        <v>339.1626766944206</v>
+        <v>339.6380139322648</v>
       </c>
       <c r="F20" t="n">
-        <v>364.1083523638702</v>
+        <v>123.5694007240554</v>
       </c>
       <c r="G20" t="n">
-        <v>372.5350441372938</v>
+        <v>131.996092497479</v>
       </c>
       <c r="H20" t="n">
-        <v>296.7071087379259</v>
+        <v>56.16815709811107</v>
       </c>
       <c r="I20" t="n">
-        <v>167.7081961925647</v>
+        <v>63.47490958811947</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1014245633085</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>166.2523762084041</v>
+        <v>166.7277134462483</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>180.8034934241344</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>209.0532967678395</v>
       </c>
       <c r="V20" t="n">
-        <v>284.9845650922937</v>
+        <v>285.4599023301379</v>
       </c>
       <c r="W20" t="n">
-        <v>65.45898646191273</v>
+        <v>306.948612577416</v>
       </c>
       <c r="X20" t="n">
-        <v>85.94911842296875</v>
+        <v>327.438744538472</v>
       </c>
       <c r="Y20" t="n">
-        <v>343.4702452782124</v>
+        <v>343.9455825160566</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>123.7654902720261</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24054,13 +24054,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>114.8773870775597</v>
+        <v>115.3527243154039</v>
       </c>
       <c r="F21" t="n">
-        <v>102.3015190155427</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>94.57582378536942</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.39014077480192</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.9154777259966</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.8723725548246</v>
       </c>
       <c r="U21" t="n">
-        <v>183.1736887031336</v>
+        <v>183.6490259409778</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>190.5082310094283</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>209.4026270209226</v>
       </c>
       <c r="X21" t="n">
-        <v>134.7491265503611</v>
+        <v>90.09373163089722</v>
       </c>
       <c r="Y21" t="n">
-        <v>162.9150023994632</v>
+        <v>163.3903396373074</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.0642868040961</v>
+        <v>137.5396240419403</v>
       </c>
       <c r="C22" t="n">
-        <v>14.00004924838241</v>
+        <v>124.9544649586308</v>
       </c>
       <c r="D22" t="n">
-        <v>105.8477796403711</v>
+        <v>106.3231168782154</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>104.1416065065722</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>103.1286918829342</v>
       </c>
       <c r="G22" t="n">
-        <v>125.2232859806175</v>
+        <v>125.6986232184618</v>
       </c>
       <c r="H22" t="n">
-        <v>119.4594791295984</v>
+        <v>119.9348163674426</v>
       </c>
       <c r="I22" t="n">
-        <v>112.6827815494171</v>
+        <v>113.1581187872613</v>
       </c>
       <c r="J22" t="n">
-        <v>50.59148673883156</v>
+        <v>51.06682397667577</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>43.86968711169738</v>
       </c>
       <c r="R22" t="n">
-        <v>134.5256979993283</v>
+        <v>135.0010352371725</v>
       </c>
       <c r="S22" t="n">
-        <v>181.248904659131</v>
+        <v>181.7242418969753</v>
       </c>
       <c r="T22" t="n">
-        <v>185.1778960504403</v>
+        <v>185.6532332882845</v>
       </c>
       <c r="U22" t="n">
-        <v>243.5513359786497</v>
+        <v>244.0266732164939</v>
       </c>
       <c r="V22" t="n">
-        <v>209.3699499459868</v>
+        <v>209.845287183831</v>
       </c>
       <c r="W22" t="n">
-        <v>243.7553049587498</v>
+        <v>244.230642196594</v>
       </c>
       <c r="X22" t="n">
-        <v>182.9419620111959</v>
+        <v>2.31181236192927</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.8169599742536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.33414184488197</v>
+        <v>99.42719664582449</v>
       </c>
       <c r="C23" t="n">
-        <v>322.5051983931663</v>
+        <v>81.96624675335147</v>
       </c>
       <c r="D23" t="n">
-        <v>311.9153482428417</v>
+        <v>71.37639660302688</v>
       </c>
       <c r="E23" t="n">
-        <v>339.1626766944206</v>
+        <v>127.3526282888226</v>
       </c>
       <c r="F23" t="n">
-        <v>364.1083523638702</v>
+        <v>364.5836896017144</v>
       </c>
       <c r="G23" t="n">
-        <v>372.5350441372938</v>
+        <v>373.010381375138</v>
       </c>
       <c r="H23" t="n">
-        <v>296.7071087379259</v>
+        <v>297.1824459757701</v>
       </c>
       <c r="I23" t="n">
-        <v>167.7081961925647</v>
+        <v>168.1835334304089</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>107.5767618011527</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>166.7277134462483</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>180.8034934241344</v>
       </c>
       <c r="U23" t="n">
-        <v>208.5779595299953</v>
+        <v>209.0532967678395</v>
       </c>
       <c r="V23" t="n">
-        <v>284.9845650922937</v>
+        <v>285.4599023301379</v>
       </c>
       <c r="W23" t="n">
-        <v>65.45898646191273</v>
+        <v>306.948612577416</v>
       </c>
       <c r="X23" t="n">
-        <v>326.9634073006278</v>
+        <v>327.438744538472</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.4702452782124</v>
+        <v>343.9455825160566</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>123.7654902720261</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>129.9408056104745</v>
+        <v>130.4161428483187</v>
       </c>
       <c r="D24" t="n">
-        <v>71.88531931079115</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>114.8773870775597</v>
+        <v>115.3527243154039</v>
       </c>
       <c r="F24" t="n">
-        <v>102.3015190155427</v>
+        <v>102.7768562533869</v>
       </c>
       <c r="G24" t="n">
-        <v>94.57582378536942</v>
+        <v>95.05116102321364</v>
       </c>
       <c r="H24" t="n">
-        <v>69.46775085865525</v>
+        <v>69.94308809649945</v>
       </c>
       <c r="I24" t="n">
-        <v>46.62893947357387</v>
+        <v>47.10427671141807</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.39014077480192</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>128.9154777259966</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,16 +24342,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>13.35120713981067</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>209.4026270209226</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>163.4806290634805</v>
       </c>
       <c r="Y24" t="n">
-        <v>162.9150023994632</v>
+        <v>163.3903396373074</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.0642868040961</v>
+        <v>137.5396240419403</v>
       </c>
       <c r="C25" t="n">
-        <v>124.4791277207866</v>
+        <v>124.9544649586308</v>
       </c>
       <c r="D25" t="n">
-        <v>105.8477796403711</v>
+        <v>38.72017257386335</v>
       </c>
       <c r="E25" t="n">
-        <v>103.666269268728</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>102.65335464509</v>
+        <v>103.1286918829342</v>
       </c>
       <c r="G25" t="n">
-        <v>125.2232859806175</v>
+        <v>125.6986232184618</v>
       </c>
       <c r="H25" t="n">
-        <v>119.4594791295984</v>
+        <v>119.9348163674426</v>
       </c>
       <c r="I25" t="n">
-        <v>112.6827815494171</v>
+        <v>113.1581187872613</v>
       </c>
       <c r="J25" t="n">
-        <v>50.59148673883156</v>
+        <v>51.06682397667577</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.39434987385317</v>
+        <v>43.86968711169738</v>
       </c>
       <c r="R25" t="n">
-        <v>134.5256979993283</v>
+        <v>135.0010352371725</v>
       </c>
       <c r="S25" t="n">
-        <v>181.248904659131</v>
+        <v>181.7242418969753</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>243.5513359786497</v>
+        <v>244.0266732164939</v>
       </c>
       <c r="V25" t="n">
-        <v>209.3699499459868</v>
+        <v>209.845287183831</v>
       </c>
       <c r="W25" t="n">
-        <v>68.74014874911467</v>
+        <v>244.230642196594</v>
       </c>
       <c r="X25" t="n">
-        <v>182.9419620111959</v>
+        <v>183.4172992490402</v>
       </c>
       <c r="Y25" t="n">
-        <v>175.8169599742536</v>
+        <v>176.2922972120978</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323.8113249009222</v>
+        <v>254.6490720263401</v>
       </c>
       <c r="C26" t="n">
-        <v>306.3503750084492</v>
+        <v>61.8488761033766</v>
       </c>
       <c r="D26" t="n">
-        <v>295.7605248581245</v>
+        <v>292.2733148307111</v>
       </c>
       <c r="E26" t="n">
-        <v>81.99356443204431</v>
+        <v>319.5206432822899</v>
       </c>
       <c r="F26" t="n">
-        <v>347.953528979153</v>
+        <v>344.4663189517395</v>
       </c>
       <c r="G26" t="n">
-        <v>308.298033035327</v>
+        <v>352.8930107251632</v>
       </c>
       <c r="H26" t="n">
-        <v>280.5522853532087</v>
+        <v>277.0650753257952</v>
       </c>
       <c r="I26" t="n">
-        <v>151.5533728078475</v>
+        <v>148.066162780434</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>87.45939115117781</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>160.6861227741595</v>
       </c>
       <c r="U26" t="n">
-        <v>192.4231361452781</v>
+        <v>188.9359261178646</v>
       </c>
       <c r="V26" t="n">
-        <v>268.8297417075765</v>
+        <v>265.342531680163</v>
       </c>
       <c r="W26" t="n">
-        <v>49.30416307719554</v>
+        <v>45.81695304978206</v>
       </c>
       <c r="X26" t="n">
-        <v>310.8085839159106</v>
+        <v>307.3213738884971</v>
       </c>
       <c r="Y26" t="n">
-        <v>327.3154218934952</v>
+        <v>82.81392298842263</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>92.27580109365374</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>88.52254880208037</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>86.14669563082549</v>
+        <v>82.65948560341201</v>
       </c>
       <c r="G27" t="n">
-        <v>78.42100040065225</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.9869060614432</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.23531739008475</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>109.273444313866</v>
       </c>
       <c r="T27" t="n">
-        <v>141.2422119322632</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>167.0188653184164</v>
+        <v>163.5316552910029</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>170.3908603594534</v>
       </c>
       <c r="W27" t="n">
-        <v>192.7724663983612</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>48.82737627609573</v>
+        <v>143.2729689873325</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.9094634193789</v>
+        <v>117.4222533919654</v>
       </c>
       <c r="C28" t="n">
-        <v>108.3243043360694</v>
+        <v>104.837094308656</v>
       </c>
       <c r="D28" t="n">
-        <v>89.69295625565397</v>
+        <v>86.20574622824049</v>
       </c>
       <c r="E28" t="n">
-        <v>87.51144588401078</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>86.49853126037286</v>
+        <v>83.01132123295938</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>105.5812525684869</v>
       </c>
       <c r="H28" t="n">
-        <v>103.3046557448812</v>
+        <v>99.81744571746771</v>
       </c>
       <c r="I28" t="n">
-        <v>96.5279581646999</v>
+        <v>93.04074813728641</v>
       </c>
       <c r="J28" t="n">
-        <v>34.43666335411439</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.239526489136</v>
+        <v>23.75231646172251</v>
       </c>
       <c r="R28" t="n">
-        <v>118.3708746146111</v>
+        <v>105.4921476079013</v>
       </c>
       <c r="S28" t="n">
-        <v>165.0940812744139</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>169.0230726657231</v>
+        <v>165.5358626383096</v>
       </c>
       <c r="U28" t="n">
-        <v>227.3965125939325</v>
+        <v>223.909302566519</v>
       </c>
       <c r="V28" t="n">
-        <v>13.87762112740566</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>227.6004815740326</v>
+        <v>224.1132715466191</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>163.2999285990653</v>
       </c>
       <c r="Y28" t="n">
-        <v>159.6621365895364</v>
+        <v>156.1749265621229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>268.4910078858529</v>
+        <v>27.47671900819387</v>
       </c>
       <c r="C29" t="n">
-        <v>251.0300579933799</v>
+        <v>38.17059131533409</v>
       </c>
       <c r="D29" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>26.67324741697507</v>
       </c>
       <c r="F29" t="n">
-        <v>51.61892308642473</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G29" t="n">
         <v>301.0599037375074</v>
@@ -24698,7 +24698,7 @@
         <v>225.2319683381395</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T29" t="n">
         <v>108.8530157865037</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V29" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>22.71274929634336</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.9951048784259</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.58914640430966</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F31" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G31" t="n">
-        <v>23.68386274590796</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>51.74525416234885</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>111.4668216114095</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>104.3418195744672</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.4910078858529</v>
+        <v>27.47671900819387</v>
       </c>
       <c r="C32" t="n">
         <v>251.0300579933799</v>
@@ -24926,16 +24926,16 @@
         <v>267.6875362946341</v>
       </c>
       <c r="F32" t="n">
-        <v>51.61892308642473</v>
+        <v>292.6332119640838</v>
       </c>
       <c r="G32" t="n">
-        <v>60.04561485984834</v>
+        <v>72.99219755454575</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T32" t="n">
-        <v>26.97115011520138</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U32" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V32" t="n">
         <v>213.5094246925073</v>
@@ -24980,10 +24980,10 @@
         <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y32" t="n">
-        <v>271.9951048784259</v>
+        <v>30.98081600076694</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D34" t="n">
-        <v>17.6353911185139</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963065</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S34" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>10.49534690286028</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>270.4983974269841</v>
+        <v>29.48410854932507</v>
       </c>
       <c r="C35" t="n">
         <v>12.02315865685205</v>
       </c>
       <c r="D35" t="n">
-        <v>242.4475973841865</v>
+        <v>1.433308506527453</v>
       </c>
       <c r="E35" t="n">
-        <v>163.1504906633882</v>
+        <v>57.40954019232322</v>
       </c>
       <c r="F35" t="n">
         <v>294.640601505215</v>
@@ -25202,13 +25202,13 @@
         <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
         <v>215.5168142336385</v>
@@ -25220,7 +25220,7 @@
         <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>32.98820554189808</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="36">
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>26.09606403470504</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>26.0960640347049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.613541113012566</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>55.01137686213137</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>43.21503069076182</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.60533702907414</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -25391,22 +25391,22 @@
         <v>270.4983974269841</v>
       </c>
       <c r="C38" t="n">
-        <v>26.97713089268069</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D38" t="n">
-        <v>242.4475973841865</v>
+        <v>1.433308506527453</v>
       </c>
       <c r="E38" t="n">
-        <v>269.6949258357653</v>
+        <v>28.68063695810628</v>
       </c>
       <c r="F38" t="n">
-        <v>53.62631262755593</v>
+        <v>82.35521586177288</v>
       </c>
       <c r="G38" t="n">
-        <v>62.05300440097955</v>
+        <v>303.0672932786386</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I38" t="n">
         <v>98.24044533390945</v>
@@ -25454,7 +25454,7 @@
         <v>237.0055244809166</v>
       </c>
       <c r="X38" t="n">
-        <v>257.4956564419726</v>
+        <v>16.48136756431353</v>
       </c>
       <c r="Y38" t="n">
         <v>274.0024944195571</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.09606403470493</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>26.09606403470504</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C40" t="n">
         <v>55.01137686213137</v>
@@ -25555,7 +25555,7 @@
         <v>36.38002878171589</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F40" t="n">
         <v>33.18560378643478</v>
@@ -25564,10 +25564,10 @@
         <v>55.7555351219623</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S40" t="n">
-        <v>13.80098786552753</v>
+        <v>7.117637647508417</v>
       </c>
       <c r="T40" t="n">
         <v>115.710145191785</v>
@@ -25606,13 +25606,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>139.9021990873316</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.4994719812311</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C41" t="n">
-        <v>271.9137116543347</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D41" t="n">
-        <v>261.3238615040102</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E41" t="n">
-        <v>288.571189955589</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F41" t="n">
-        <v>313.5168656250387</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G41" t="n">
-        <v>321.9435573984623</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H41" t="n">
-        <v>246.1156219990944</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I41" t="n">
-        <v>117.1167094537331</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.50993782447691</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S41" t="n">
-        <v>115.6608894695726</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T41" t="n">
-        <v>129.7366694474586</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U41" t="n">
-        <v>157.9864727911637</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>63.09972053604986</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W41" t="n">
-        <v>255.8817886007402</v>
+        <v>95.55619553538051</v>
       </c>
       <c r="X41" t="n">
-        <v>105.078562744384</v>
+        <v>133.2903535496502</v>
       </c>
       <c r="Y41" t="n">
-        <v>121.5854007219685</v>
+        <v>132.5531654740211</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.17400353319456</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C42" t="n">
-        <v>79.34931887164296</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D42" t="n">
-        <v>54.08588544796598</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>64.28590033872817</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F42" t="n">
-        <v>51.7100322767111</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G42" t="n">
-        <v>43.98433704653786</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H42" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>35.52201934739688</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>69.94614771157686</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.3235156606316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>33.74230525815833</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D43" t="n">
-        <v>55.25629290153958</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>95.76879603615384</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>134.5864093116087</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U43" t="n">
-        <v>192.9598492398181</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>193.1638182199182</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X43" t="n">
-        <v>132.3504752723644</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.225473235422</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355875.1359578201</v>
+        <v>354883.582479677</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>404293.9084575837</v>
+        <v>408044.3528260463</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>512356.0199945809</v>
+        <v>511305.7658850597</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>512356.0199945808</v>
+        <v>511305.7658850596</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548049.9827174203</v>
+        <v>555754.9474676363</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582473.798477296</v>
+        <v>569696.1510314746</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774088</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774086</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="D2" t="n">
         <v>716866.7963774087</v>
@@ -26323,34 +26323,34 @@
         <v>194335.9807969422</v>
       </c>
       <c r="F2" t="n">
-        <v>275244.581809235</v>
+        <v>274253.0283310922</v>
       </c>
       <c r="G2" t="n">
-        <v>309810.2811870217</v>
+        <v>312291.7197937857</v>
       </c>
       <c r="H2" t="n">
-        <v>386842.3414200037</v>
+        <v>385792.0873104823</v>
       </c>
       <c r="I2" t="n">
-        <v>386842.3414200038</v>
+        <v>385792.0873104825</v>
       </c>
       <c r="J2" t="n">
-        <v>422536.3041428442</v>
+        <v>430241.2688930598</v>
       </c>
       <c r="K2" t="n">
-        <v>543226.8512836429</v>
+        <v>543226.8512836423</v>
       </c>
       <c r="L2" t="n">
-        <v>543226.8512836429</v>
+        <v>543226.8512836427</v>
       </c>
       <c r="M2" t="n">
-        <v>539016.6391793016</v>
+        <v>539016.6391793018</v>
       </c>
       <c r="N2" t="n">
-        <v>539016.639179302</v>
+        <v>539016.6391793017</v>
       </c>
       <c r="O2" t="n">
-        <v>469590.1722020578</v>
+        <v>458081.5305179345</v>
       </c>
       <c r="P2" t="n">
         <v>188137.9596800312</v>
@@ -26375,22 +26375,22 @@
         <v>2177.15258808521</v>
       </c>
       <c r="F3" t="n">
-        <v>30431.09048128282</v>
+        <v>30050.82069100747</v>
       </c>
       <c r="G3" t="n">
-        <v>19109.46138964774</v>
+        <v>21029.4864245159</v>
       </c>
       <c r="H3" t="n">
-        <v>47822.40121226313</v>
+        <v>45932.33048736849</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15101.01129585895</v>
+        <v>18271.04910806511</v>
       </c>
       <c r="K3" t="n">
-        <v>74687.34409333822</v>
+        <v>71517.30628113206</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="C4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="D4" t="n">
-        <v>427717.1737329711</v>
+        <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>86867.59030083434</v>
+        <v>84673.55573396674</v>
       </c>
       <c r="F4" t="n">
-        <v>139644.6938300905</v>
+        <v>136803.8637443782</v>
       </c>
       <c r="G4" t="n">
-        <v>155855.3625866423</v>
+        <v>154292.6216406614</v>
       </c>
       <c r="H4" t="n">
-        <v>191841.2344221777</v>
+        <v>187739.9206951977</v>
       </c>
       <c r="I4" t="n">
-        <v>191841.2344221777</v>
+        <v>187739.9206951977</v>
       </c>
       <c r="J4" t="n">
-        <v>215154.5050694568</v>
+        <v>216771.6034010686</v>
       </c>
       <c r="K4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="L4" t="n">
-        <v>293999.1209869308</v>
+        <v>290583.7736373409</v>
       </c>
       <c r="M4" t="n">
-        <v>291247.8217982544</v>
+        <v>287832.4744486645</v>
       </c>
       <c r="N4" t="n">
-        <v>291247.8217982543</v>
+        <v>287832.4744486645</v>
       </c>
       <c r="O4" t="n">
-        <v>251730.6913121381</v>
+        <v>241762.2790016676</v>
       </c>
       <c r="P4" t="n">
-        <v>82824.58871545237</v>
+        <v>80630.55414858479</v>
       </c>
     </row>
     <row r="5">
@@ -26479,19 +26479,19 @@
         <v>228.7888011596694</v>
       </c>
       <c r="F5" t="n">
-        <v>3426.677983248376</v>
+        <v>3386.716857000053</v>
       </c>
       <c r="G5" t="n">
-        <v>7665.71059171138</v>
+        <v>8051.666688660183</v>
       </c>
       <c r="H5" t="n">
-        <v>18249.1059783434</v>
+        <v>18209.14485209508</v>
       </c>
       <c r="I5" t="n">
-        <v>18249.1059783434</v>
+        <v>18209.14485209508</v>
       </c>
       <c r="J5" t="n">
-        <v>19607.22582547319</v>
+        <v>19900.39208526782</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26506,7 +26506,7 @@
         <v>24089.19032527969</v>
       </c>
       <c r="O5" t="n">
-        <v>18263.24906852723</v>
+        <v>17504.20445928715</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255522.0226444376</v>
+        <v>257716.0572113051</v>
       </c>
       <c r="C6" t="n">
-        <v>255522.0226444374</v>
+        <v>257716.0572113052</v>
       </c>
       <c r="D6" t="n">
-        <v>255522.0226444375</v>
+        <v>257716.0572113052</v>
       </c>
       <c r="E6" t="n">
-        <v>105062.449106863</v>
+        <v>107256.4836737306</v>
       </c>
       <c r="F6" t="n">
-        <v>101742.1195146133</v>
+        <v>104011.6270387064</v>
       </c>
       <c r="G6" t="n">
-        <v>127179.7466190203</v>
+        <v>128917.9450399482</v>
       </c>
       <c r="H6" t="n">
-        <v>128929.5998072195</v>
+        <v>133910.691275821</v>
       </c>
       <c r="I6" t="n">
-        <v>176752.0010194827</v>
+        <v>179843.0217631897</v>
       </c>
       <c r="J6" t="n">
-        <v>172673.5619520553</v>
+        <v>175298.2242986582</v>
       </c>
       <c r="K6" t="n">
-        <v>150282.4366467608</v>
+        <v>156867.8218085563</v>
       </c>
       <c r="L6" t="n">
-        <v>224969.7807400991</v>
+        <v>228385.1280896887</v>
       </c>
       <c r="M6" t="n">
-        <v>223679.6270557675</v>
+        <v>227094.9744053576</v>
       </c>
       <c r="N6" t="n">
-        <v>223679.627055768</v>
+        <v>227094.9744053575</v>
       </c>
       <c r="O6" t="n">
-        <v>199596.2318213925</v>
+        <v>198815.0470569798</v>
       </c>
       <c r="P6" t="n">
-        <v>105313.3709645788</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="G2" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="H2" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I2" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J2" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="O2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,7 +26826,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26917,22 +26917,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="F2" t="n">
-        <v>38.03886310160352</v>
+        <v>37.56352586375933</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.007389541131175</v>
+        <v>2.007389541131161</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="K2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,10 +27024,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="H4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="K2" t="n">
-        <v>38.03886310160352</v>
+        <v>37.56352586375933</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.007389541131175</v>
+        <v>2.007389541131161</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.87626411982369</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="P2" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="3">
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="P4" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="C14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="D14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="E14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="F14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="G14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="H14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="S14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="T14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="U14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="V14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="W14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="X14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="C15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="D15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="E15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="F15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="G15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="H15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="I15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="S15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="T15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="U15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="V15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="W15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="X15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="Y15" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="C16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="D16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="E16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="F16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="G16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="H16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="I16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="J16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28527,31 +28527,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="R16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="S16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="T16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="U16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="V16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="W16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="X16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="C17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="D17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="E17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="F17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="G17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="H17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="I17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="S17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="T17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="U17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="V17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="W17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="X17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="Y17" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="C18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="D18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="E18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="F18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="G18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="H18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="I18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="S18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="T18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="U18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="V18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="W18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="X18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="C19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="D19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="E19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="F19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="G19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="H19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="I19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="J19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="L19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="M19" t="n">
-        <v>30.1370540984062</v>
+        <v>37.14227158520103</v>
       </c>
       <c r="N19" t="n">
-        <v>25.58875868101819</v>
+        <v>32.59397616781303</v>
       </c>
       <c r="O19" t="n">
-        <v>40.76030383671004</v>
+        <v>2.313130278178125</v>
       </c>
       <c r="P19" t="n">
-        <v>5.650534692258701</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="R19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="S19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="T19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="U19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="V19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="W19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="X19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
       <c r="Y19" t="n">
-        <v>40.76030383671004</v>
+        <v>40.28496659886584</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="K22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="L22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="M22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="N22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="O22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="P22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="R22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y23" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="C25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="D25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="E25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="F25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="G25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="H25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="I25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="J25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="K25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="L25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="M25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="N25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="O25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="P25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="R25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="S25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="T25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="U25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="V25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="W25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="X25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.76769337784121</v>
+        <v>42.292356139997</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="C26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="D26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="E26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="F26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="G26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="H26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="I26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="S26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="T26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="U26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="V26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="W26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="X26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="Y26" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="C27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="D27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="E27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="F27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="G27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="H27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="I27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="S27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="T27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="U27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="V27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="W27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="X27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="Y27" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="C28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="D28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="E28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="F28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="G28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="H28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="I28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="J28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="K28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="L28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="M28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="N28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="O28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="P28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="R28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="S28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="T28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="U28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="V28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="W28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="X28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.92251676255839</v>
+        <v>62.40972678997188</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="L43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="M43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="N43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="O43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="P43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.35918011667277</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="44">
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>69.72093106024678</v>
+        <v>73.62610214110055</v>
       </c>
       <c r="L17" t="n">
-        <v>66.90392374468125</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="O17" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="P17" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="M18" t="n">
-        <v>69.72093106024678</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>66.90392374468126</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="P18" t="n">
-        <v>69.72093106024678</v>
+        <v>73.62610214110056</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>18.01547477298299</v>
       </c>
       <c r="L19" t="n">
-        <v>68.35032909702618</v>
+        <v>67.87499185918199</v>
       </c>
       <c r="M19" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="N19" t="n">
-        <v>69.72093106024678</v>
+        <v>76.72614854704162</v>
       </c>
       <c r="O19" t="n">
-        <v>65.34543175074971</v>
+        <v>26.8982581922178</v>
       </c>
       <c r="P19" t="n">
-        <v>2.929093957152188</v>
+        <v>37.56352586375933</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.49820155195836</v>
+        <v>20.02286431411415</v>
       </c>
       <c r="L22" t="n">
-        <v>70.35771863815735</v>
+        <v>69.88238140031314</v>
       </c>
       <c r="M22" t="n">
-        <v>82.3515703396818</v>
+        <v>81.87623310183758</v>
       </c>
       <c r="N22" t="n">
-        <v>86.8998657570698</v>
+        <v>86.42452851922559</v>
       </c>
       <c r="O22" t="n">
-        <v>67.35282129188089</v>
+        <v>66.87748405403667</v>
       </c>
       <c r="P22" t="n">
-        <v>40.0462526427347</v>
+        <v>39.57091540489049</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>20.49820155195836</v>
+        <v>20.02286431411415</v>
       </c>
       <c r="L25" t="n">
-        <v>70.35771863815735</v>
+        <v>69.88238140031314</v>
       </c>
       <c r="M25" t="n">
-        <v>82.3515703396818</v>
+        <v>81.87623310183758</v>
       </c>
       <c r="N25" t="n">
-        <v>86.8998657570698</v>
+        <v>86.42452851922559</v>
       </c>
       <c r="O25" t="n">
-        <v>67.35282129188089</v>
+        <v>66.87748405403667</v>
       </c>
       <c r="P25" t="n">
-        <v>40.0462526427347</v>
+        <v>39.57091540489049</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>36.65302493667554</v>
+        <v>40.14023496408903</v>
       </c>
       <c r="L28" t="n">
-        <v>86.51254202287453</v>
+        <v>89.99975205028801</v>
       </c>
       <c r="M28" t="n">
-        <v>98.50639372439898</v>
+        <v>101.9936037518125</v>
       </c>
       <c r="N28" t="n">
-        <v>103.054689141787</v>
+        <v>106.5418991692005</v>
       </c>
       <c r="O28" t="n">
-        <v>83.50764467659806</v>
+        <v>86.99485470401154</v>
       </c>
       <c r="P28" t="n">
-        <v>56.20107602745188</v>
+        <v>59.68828605486537</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36926,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K31" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L31" t="n">
         <v>141.8328590379438</v>
@@ -37008,7 +37008,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K34" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L34" t="n">
         <v>141.8328590379438</v>
@@ -37245,7 +37245,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P36" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,10 +37634,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="M41" t="n">
-        <v>80.90824051738325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>127.3171020590146</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>157.6502356707945</v>
       </c>
       <c r="M42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="N42" t="n">
-        <v>171.2933578174123</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>171.2933578174123</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="P42" t="n">
-        <v>164.3724140672139</v>
+        <v>164.2881403306174</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>71.08968829078992</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="L43" t="n">
-        <v>120.9492053769889</v>
+        <v>116.9866581117312</v>
       </c>
       <c r="M43" t="n">
-        <v>132.9430570785134</v>
+        <v>128.9805098132557</v>
       </c>
       <c r="N43" t="n">
-        <v>137.4913524959014</v>
+        <v>133.5288052306437</v>
       </c>
       <c r="O43" t="n">
-        <v>117.9443080307124</v>
+        <v>113.9817607654548</v>
       </c>
       <c r="P43" t="n">
-        <v>90.63773938156626</v>
+        <v>86.67519211630857</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.19713686497839</v>
+        <v>3.234589599720692</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
